--- a/app/src/main/assets/xls/template.xlsx
+++ b/app/src/main/assets/xls/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresilva/Library/Mobile Documents/com~apple~CloudDocs/Projetos_Android/Controle_Material/app/src/main/assets/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresilva/Android Apps/ipev carga/app/src/main/assets/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EFBC5-788A-8744-BCD6-226921E72334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3682A7-6CB0-9A4D-BCE4-B99D332BEE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28680" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>MINISTÉRIO DA DEFESA</t>
   </si>
@@ -45,45 +45,15 @@
     <t>COMANDO DA AERONÁUTICA</t>
   </si>
   <si>
-    <t>INSTITUTO DE AERONÁUTICA E ESPAÇO</t>
-  </si>
-  <si>
-    <t>TERMO DE RESPONSABILIDADE PATRIMONIAL</t>
-  </si>
-  <si>
-    <t>SUBDIVISÃO DE PROPELENTES E PROTEÇÕES TÉRMICAS - APR-P</t>
-  </si>
-  <si>
-    <t>NOMENCLATURA/COMPONENTE</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>Nº BMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRÉDIO: </t>
-  </si>
-  <si>
-    <t>SETOR:</t>
-  </si>
-  <si>
     <t>SALA:</t>
   </si>
   <si>
     <t>LAPR</t>
   </si>
   <si>
-    <t>Conferi e Recebi os Bens Móveis Permanentes, listados no presente Termo e assumo a responsabilidade de mantê-los nas melhores condições possíveis, bem como somente movimentá-los após informar o Chefe da Divisão, através do ELO de CARGA.</t>
-  </si>
-  <si>
     <t>CAMILA MARIA LAPA Maj QOEng QUI</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome e Assinatura do Responsável </t>
-  </si>
-  <si>
     <t>Tecnol. BRUNO CESAR CHRISTO DA CUNHA</t>
   </si>
   <si>
@@ -123,7 +93,34 @@
     <t>APR-PSC</t>
   </si>
   <si>
-    <t>Nome e Assinatura do chefe do setor</t>
+    <t>INSTITUTO DE PESQUISAS E ENSAIOS EM VOO</t>
+  </si>
+  <si>
+    <t>MATERIAL CARGA PERMANENTE E DE CONSUMO DE USO DURADOURO</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>DESCRICÃO DO MATERIAL</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>Qualquer movimentação do material constante desta cautela deverá ser comunicada, imediatamente, a Seção de Registro do IPEV via parte.</t>
+  </si>
+  <si>
+    <t>Responsável pela Carga</t>
+  </si>
+  <si>
+    <t>Detentor da Carga</t>
   </si>
 </sst>
 </file>
@@ -138,13 +135,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,6 +174,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -233,77 +230,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -320,94 +246,64 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,6 +365,106 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>298839</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C2133F-F538-3210-AE6C-78C12A7B4199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="254000"/>
+          <a:ext cx="590939" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298839</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB543B5-A7F4-9846-8C1B-C179AE734C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="266700"/>
+          <a:ext cx="590939" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -766,7 +762,7 @@
   <dimension ref="A7:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -775,123 +771,128 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:10">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="14"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -900,50 +901,50 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="F22" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="15">
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="21">
         <f ca="1">TODAY()</f>
-        <v>45366</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+        <v>45791</v>
+      </c>
+      <c r="J22" s="21"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -951,7 +952,7 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="F29" s="4"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="33" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
@@ -962,18 +963,18 @@
     <sortCondition sortBy="icon" ref="O40"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:J28"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="A17:J19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <pageMargins left="0.47" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -999,84 +1000,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
